--- a/Proyectos/2016/7/P1720 - ERI, Brenda Guzman Guerrero _MO/Compras/P1720 - ERI, Brenda Guzman Guerrero _MO.xlsx
+++ b/Proyectos/2016/7/P1720 - ERI, Brenda Guzman Guerrero _MO/Compras/P1720 - ERI, Brenda Guzman Guerrero _MO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
@@ -10,7 +10,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -344,11 +344,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,57 +894,13 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -968,19 +924,63 @@
     <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentual" xfId="3" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1026,7 +1026,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1124,6 +1124,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1158,6 +1159,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1333,14 +1335,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1354,99 +1356,99 @@
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
@@ -1463,7 +1465,7 @@
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1476,17 +1478,17 @@
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1499,17 +1501,17 @@
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="47">
         <v>44400</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1522,17 +1524,17 @@
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1545,17 +1547,17 @@
       <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1568,17 +1570,17 @@
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>19</v>
       </c>
@@ -1595,102 +1597,102 @@
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="54" t="s">
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="52" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54" t="s">
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="53" t="s">
+      <c r="H15" s="51"/>
+      <c r="I15" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="55"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="43" t="s">
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1">
-      <c r="A17" s="46" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1705,7 +1707,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>51</v>
       </c>
@@ -1722,7 +1724,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" s="9" customFormat="1">
+    <row r="21" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>49</v>
       </c>
@@ -1741,7 +1743,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:16" s="9" customFormat="1">
+    <row r="22" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="27" t="s">
         <v>59</v>
@@ -1758,7 +1760,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:16" s="9" customFormat="1">
+    <row r="23" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="27" t="s">
         <v>60</v>
@@ -1775,7 +1777,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="26"/>
       <c r="C24" s="23"/>
@@ -1786,37 +1788,37 @@
       <c r="H24" s="23"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:16" ht="60" customHeight="1">
-      <c r="A26" s="59" t="s">
+    <row r="26" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="57" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58" t="s">
+      <c r="G26" s="43"/>
+      <c r="H26" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="65" t="s">
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66"/>
-    </row>
-    <row r="27" spans="1:16" ht="87" customHeight="1">
+      <c r="L26" s="52"/>
+      <c r="M26" s="53"/>
+    </row>
+    <row r="27" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>24</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>1</v>
       </c>
@@ -1907,7 +1909,7 @@
         <v>1369.5</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>0</v>
       </c>
@@ -1934,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>0</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>0</v>
       </c>
@@ -1988,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>0</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>0</v>
       </c>
@@ -2042,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>0</v>
       </c>
@@ -2069,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>0</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>0</v>
       </c>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>0</v>
       </c>
@@ -2150,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>0</v>
       </c>
@@ -2177,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>0</v>
       </c>
@@ -2204,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>0</v>
       </c>
@@ -2231,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>0</v>
       </c>
@@ -2258,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" thickBot="1">
+    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>0</v>
       </c>
@@ -2285,80 +2287,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
-      <c r="N43" s="39" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N43" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="39"/>
+      <c r="O43" s="54"/>
       <c r="P43" s="36">
         <f>+SUM(P28:P42)</f>
         <v>1369.5</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="67" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="67"/>
-      <c r="N44" s="39" t="s">
+      <c r="B44" s="39"/>
+      <c r="N44" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="O44" s="39"/>
+      <c r="O44" s="54"/>
       <c r="P44" s="35">
         <f>+P43*0.16</f>
         <v>219.12</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>72</v>
       </c>
-      <c r="N45" s="39" t="s">
+      <c r="N45" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="O45" s="39"/>
+      <c r="O45" s="54"/>
       <c r="P45" s="36">
         <f>+P43+P44</f>
         <v>1588.62</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M18"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:M15"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="A1:M6"/>
@@ -2375,17 +2388,6 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M18"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:M15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1"/>
@@ -2427,18 +2429,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2460,7 +2462,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>35</v>
       </c>

--- a/Proyectos/2016/7/P1720 - ERI, Brenda Guzman Guerrero _MO/Compras/P1720 - ERI, Brenda Guzman Guerrero _MO.xlsx
+++ b/Proyectos/2016/7/P1720 - ERI, Brenda Guzman Guerrero _MO/Compras/P1720 - ERI, Brenda Guzman Guerrero _MO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
@@ -10,12 +10,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>Deal</t>
   </si>
@@ -340,15 +340,18 @@
   <si>
     <t>MAIL: Liz.romero@outlook.com o al mío .. Carolina_guzmangro@outlook.com</t>
   </si>
+  <si>
+    <t>QW9RKN1R</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,12 +898,57 @@
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -924,63 +972,18 @@
     <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Porcentual" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1026,7 +1029,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1124,7 +1127,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1159,7 +1161,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1335,14 +1336,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1356,162 +1357,162 @@
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="62">
         <v>44400</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1524,175 +1525,175 @@
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="65" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="51" t="s">
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="66" t="s">
+      <c r="H15" s="55"/>
+      <c r="I15" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="56"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1">
+      <c r="A17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="64"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1707,7 +1708,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="18" t="s">
         <v>51</v>
       </c>
@@ -1724,7 +1725,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="9" customFormat="1">
       <c r="A21" s="25" t="s">
         <v>49</v>
       </c>
@@ -1743,7 +1744,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="9" customFormat="1">
       <c r="A22" s="25"/>
       <c r="B22" s="27" t="s">
         <v>59</v>
@@ -1760,7 +1761,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="9" customFormat="1">
       <c r="A23" s="25"/>
       <c r="B23" s="27" t="s">
         <v>60</v>
@@ -1777,7 +1778,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1">
       <c r="A24" s="22"/>
       <c r="B24" s="26"/>
       <c r="C24" s="23"/>
@@ -1788,37 +1789,37 @@
       <c r="H24" s="23"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:16" ht="60" customHeight="1">
+      <c r="A26" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="43" t="s">
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44" t="s">
+      <c r="G26" s="58"/>
+      <c r="H26" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="52" t="s">
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="52"/>
-      <c r="M26" s="53"/>
-    </row>
-    <row r="27" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="66"/>
+      <c r="M26" s="67"/>
+    </row>
+    <row r="27" spans="1:16" ht="87" customHeight="1">
       <c r="A27" s="29" t="s">
         <v>24</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="13">
         <v>1</v>
       </c>
@@ -1894,7 +1895,9 @@
       <c r="I28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J28" s="16"/>
+      <c r="J28" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="33"/>
@@ -1909,7 +1912,7 @@
         <v>1369.5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="13">
         <v>0</v>
       </c>
@@ -1936,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="13">
         <v>0</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>0</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="13">
         <v>0</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="13">
         <v>0</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="13">
         <v>0</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="13">
         <v>0</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="13">
         <v>0</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="13">
         <v>0</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="13">
         <v>0</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="13">
         <v>0</v>
       </c>
@@ -2206,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="13">
         <v>0</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="13">
         <v>0</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="15.75" thickBot="1">
       <c r="A42" s="15">
         <v>0</v>
       </c>
@@ -2287,91 +2290,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N43" s="54" t="s">
+    <row r="43" spans="1:16">
+      <c r="N43" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="54"/>
+      <c r="O43" s="40"/>
       <c r="P43" s="36">
         <f>+SUM(P28:P42)</f>
         <v>1369.5</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="39" t="s">
         <v>71</v>
       </c>
       <c r="B44" s="39"/>
-      <c r="N44" s="54" t="s">
+      <c r="N44" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="O44" s="54"/>
+      <c r="O44" s="40"/>
       <c r="P44" s="35">
         <f>+P43*0.16</f>
         <v>219.12</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>72</v>
       </c>
-      <c r="N45" s="54" t="s">
+      <c r="N45" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="O45" s="54"/>
+      <c r="O45" s="40"/>
       <c r="P45" s="36">
         <f>+P43+P44</f>
         <v>1588.62</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M18"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:M15"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="A1:M6"/>
@@ -2388,6 +2380,17 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M18"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:M15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1"/>
@@ -2429,18 +2432,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2448,7 +2451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="C4" t="s">
         <v>35</v>
       </c>
